--- a/Code/Results/All_diag_320.xlsx
+++ b/Code/Results/All_diag_320.xlsx
@@ -7,16 +7,360 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="0_0" sheetId="1" r:id="rId1"/>
+    <sheet name="0_1" sheetId="2" r:id="rId2"/>
+    <sheet name="0_2" sheetId="3" r:id="rId3"/>
+    <sheet name="0_3" sheetId="4" r:id="rId4"/>
+    <sheet name="0_4" sheetId="5" r:id="rId5"/>
+    <sheet name="0_5" sheetId="6" r:id="rId6"/>
+    <sheet name="0_6" sheetId="7" r:id="rId7"/>
+    <sheet name="0_7" sheetId="8" r:id="rId8"/>
+    <sheet name="0_8" sheetId="9" r:id="rId9"/>
+    <sheet name="0_9" sheetId="10" r:id="rId10"/>
+    <sheet name="0_10" sheetId="11" r:id="rId11"/>
+    <sheet name="0_11" sheetId="12" r:id="rId12"/>
+    <sheet name="0_12" sheetId="13" r:id="rId13"/>
+    <sheet name="0_13" sheetId="14" r:id="rId14"/>
+    <sheet name="0_14" sheetId="15" r:id="rId15"/>
+    <sheet name="0_15" sheetId="16" r:id="rId16"/>
+    <sheet name="0_16" sheetId="17" r:id="rId17"/>
+    <sheet name="0_17" sheetId="18" r:id="rId18"/>
+    <sheet name="0_18" sheetId="19" r:id="rId19"/>
+    <sheet name="0_19" sheetId="20" r:id="rId20"/>
+    <sheet name="0_20" sheetId="21" r:id="rId21"/>
+    <sheet name="0_21" sheetId="22" r:id="rId22"/>
+    <sheet name="0_22" sheetId="23" r:id="rId23"/>
+    <sheet name="0_23" sheetId="24" r:id="rId24"/>
+    <sheet name="0_24" sheetId="25" r:id="rId25"/>
+    <sheet name="0_25" sheetId="26" r:id="rId26"/>
+    <sheet name="0_26" sheetId="27" r:id="rId27"/>
+    <sheet name="0_27" sheetId="28" r:id="rId28"/>
+    <sheet name="0_28" sheetId="29" r:id="rId29"/>
+    <sheet name="0_29" sheetId="30" r:id="rId30"/>
+    <sheet name="0_30" sheetId="31" r:id="rId31"/>
+    <sheet name="0_31" sheetId="32" r:id="rId32"/>
+    <sheet name="0_32" sheetId="33" r:id="rId33"/>
+    <sheet name="0_33" sheetId="34" r:id="rId34"/>
+    <sheet name="0_34" sheetId="35" r:id="rId35"/>
+    <sheet name="0_35" sheetId="36" r:id="rId36"/>
+    <sheet name="0_36" sheetId="37" r:id="rId37"/>
+    <sheet name="0_37" sheetId="38" r:id="rId38"/>
+    <sheet name="0_38" sheetId="39" r:id="rId39"/>
+    <sheet name="0_39" sheetId="40" r:id="rId40"/>
+    <sheet name="0_40" sheetId="41" r:id="rId41"/>
+    <sheet name="0_41" sheetId="42" r:id="rId42"/>
+    <sheet name="0_42" sheetId="43" r:id="rId43"/>
+    <sheet name="0_43" sheetId="44" r:id="rId44"/>
+    <sheet name="0_44" sheetId="45" r:id="rId45"/>
+    <sheet name="0_45" sheetId="46" r:id="rId46"/>
+    <sheet name="0_46" sheetId="47" r:id="rId47"/>
+    <sheet name="0_47" sheetId="48" r:id="rId48"/>
+    <sheet name="0_48" sheetId="49" r:id="rId49"/>
+    <sheet name="0_49" sheetId="50" r:id="rId50"/>
+    <sheet name="0_50" sheetId="51" r:id="rId51"/>
+    <sheet name="0_51" sheetId="52" r:id="rId52"/>
+    <sheet name="0_52" sheetId="53" r:id="rId53"/>
+    <sheet name="0_53" sheetId="54" r:id="rId54"/>
+    <sheet name="0_54" sheetId="55" r:id="rId55"/>
+    <sheet name="0_55" sheetId="56" r:id="rId56"/>
+    <sheet name="0_56" sheetId="57" r:id="rId57"/>
+    <sheet name="0_57" sheetId="58" r:id="rId58"/>
+    <sheet name="0_58" sheetId="59" r:id="rId59"/>
+    <sheet name="0_59" sheetId="60" r:id="rId60"/>
+    <sheet name="0_60" sheetId="61" r:id="rId61"/>
+    <sheet name="0_61" sheetId="62" r:id="rId62"/>
+    <sheet name="0_62" sheetId="63" r:id="rId63"/>
+    <sheet name="0_63" sheetId="64" r:id="rId64"/>
+    <sheet name="1_0" sheetId="65" r:id="rId65"/>
+    <sheet name="1_1" sheetId="66" r:id="rId66"/>
+    <sheet name="1_2" sheetId="67" r:id="rId67"/>
+    <sheet name="1_3" sheetId="68" r:id="rId68"/>
+    <sheet name="1_4" sheetId="69" r:id="rId69"/>
+    <sheet name="1_5" sheetId="70" r:id="rId70"/>
+    <sheet name="1_6" sheetId="71" r:id="rId71"/>
+    <sheet name="1_7" sheetId="72" r:id="rId72"/>
+    <sheet name="1_8" sheetId="73" r:id="rId73"/>
+    <sheet name="1_9" sheetId="74" r:id="rId74"/>
+    <sheet name="1_10" sheetId="75" r:id="rId75"/>
+    <sheet name="1_11" sheetId="76" r:id="rId76"/>
+    <sheet name="1_12" sheetId="77" r:id="rId77"/>
+    <sheet name="1_13" sheetId="78" r:id="rId78"/>
+    <sheet name="1_14" sheetId="79" r:id="rId79"/>
+    <sheet name="1_15" sheetId="80" r:id="rId80"/>
+    <sheet name="1_16" sheetId="81" r:id="rId81"/>
+    <sheet name="1_17" sheetId="82" r:id="rId82"/>
+    <sheet name="1_18" sheetId="83" r:id="rId83"/>
+    <sheet name="1_19" sheetId="84" r:id="rId84"/>
+    <sheet name="1_20" sheetId="85" r:id="rId85"/>
+    <sheet name="1_21" sheetId="86" r:id="rId86"/>
+    <sheet name="1_22" sheetId="87" r:id="rId87"/>
+    <sheet name="1_23" sheetId="88" r:id="rId88"/>
+    <sheet name="1_24" sheetId="89" r:id="rId89"/>
+    <sheet name="1_25" sheetId="90" r:id="rId90"/>
+    <sheet name="1_26" sheetId="91" r:id="rId91"/>
+    <sheet name="1_27" sheetId="92" r:id="rId92"/>
+    <sheet name="1_28" sheetId="93" r:id="rId93"/>
+    <sheet name="1_29" sheetId="94" r:id="rId94"/>
+    <sheet name="1_30" sheetId="95" r:id="rId95"/>
+    <sheet name="1_31" sheetId="96" r:id="rId96"/>
+    <sheet name="1_32" sheetId="97" r:id="rId97"/>
+    <sheet name="1_33" sheetId="98" r:id="rId98"/>
+    <sheet name="1_34" sheetId="99" r:id="rId99"/>
+    <sheet name="1_35" sheetId="100" r:id="rId100"/>
+    <sheet name="1_36" sheetId="101" r:id="rId101"/>
+    <sheet name="1_37" sheetId="102" r:id="rId102"/>
+    <sheet name="1_38" sheetId="103" r:id="rId103"/>
+    <sheet name="1_39" sheetId="104" r:id="rId104"/>
+    <sheet name="1_40" sheetId="105" r:id="rId105"/>
+    <sheet name="1_41" sheetId="106" r:id="rId106"/>
+    <sheet name="1_42" sheetId="107" r:id="rId107"/>
+    <sheet name="1_43" sheetId="108" r:id="rId108"/>
+    <sheet name="1_44" sheetId="109" r:id="rId109"/>
+    <sheet name="1_45" sheetId="110" r:id="rId110"/>
+    <sheet name="1_46" sheetId="111" r:id="rId111"/>
+    <sheet name="1_47" sheetId="112" r:id="rId112"/>
+    <sheet name="1_48" sheetId="113" r:id="rId113"/>
+    <sheet name="1_49" sheetId="114" r:id="rId114"/>
+    <sheet name="1_50" sheetId="115" r:id="rId115"/>
+    <sheet name="1_51" sheetId="116" r:id="rId116"/>
+    <sheet name="1_52" sheetId="117" r:id="rId117"/>
+    <sheet name="1_53" sheetId="118" r:id="rId118"/>
+    <sheet name="1_54" sheetId="119" r:id="rId119"/>
+    <sheet name="1_55" sheetId="120" r:id="rId120"/>
+    <sheet name="1_56" sheetId="121" r:id="rId121"/>
+    <sheet name="1_57" sheetId="122" r:id="rId122"/>
+    <sheet name="1_58" sheetId="123" r:id="rId123"/>
+    <sheet name="1_59" sheetId="124" r:id="rId124"/>
+    <sheet name="1_60" sheetId="125" r:id="rId125"/>
+    <sheet name="1_61" sheetId="126" r:id="rId126"/>
+    <sheet name="1_62" sheetId="127" r:id="rId127"/>
+    <sheet name="1_63" sheetId="128" r:id="rId128"/>
+    <sheet name="2_0" sheetId="129" r:id="rId129"/>
+    <sheet name="2_1" sheetId="130" r:id="rId130"/>
+    <sheet name="2_2" sheetId="131" r:id="rId131"/>
+    <sheet name="2_3" sheetId="132" r:id="rId132"/>
+    <sheet name="2_4" sheetId="133" r:id="rId133"/>
+    <sheet name="2_5" sheetId="134" r:id="rId134"/>
+    <sheet name="2_6" sheetId="135" r:id="rId135"/>
+    <sheet name="2_7" sheetId="136" r:id="rId136"/>
+    <sheet name="2_8" sheetId="137" r:id="rId137"/>
+    <sheet name="2_9" sheetId="138" r:id="rId138"/>
+    <sheet name="2_10" sheetId="139" r:id="rId139"/>
+    <sheet name="2_11" sheetId="140" r:id="rId140"/>
+    <sheet name="2_12" sheetId="141" r:id="rId141"/>
+    <sheet name="2_13" sheetId="142" r:id="rId142"/>
+    <sheet name="2_14" sheetId="143" r:id="rId143"/>
+    <sheet name="2_15" sheetId="144" r:id="rId144"/>
+    <sheet name="2_16" sheetId="145" r:id="rId145"/>
+    <sheet name="2_17" sheetId="146" r:id="rId146"/>
+    <sheet name="2_18" sheetId="147" r:id="rId147"/>
+    <sheet name="2_19" sheetId="148" r:id="rId148"/>
+    <sheet name="2_20" sheetId="149" r:id="rId149"/>
+    <sheet name="2_21" sheetId="150" r:id="rId150"/>
+    <sheet name="2_22" sheetId="151" r:id="rId151"/>
+    <sheet name="2_23" sheetId="152" r:id="rId152"/>
+    <sheet name="2_24" sheetId="153" r:id="rId153"/>
+    <sheet name="2_25" sheetId="154" r:id="rId154"/>
+    <sheet name="2_26" sheetId="155" r:id="rId155"/>
+    <sheet name="2_27" sheetId="156" r:id="rId156"/>
+    <sheet name="2_28" sheetId="157" r:id="rId157"/>
+    <sheet name="2_29" sheetId="158" r:id="rId158"/>
+    <sheet name="2_30" sheetId="159" r:id="rId159"/>
+    <sheet name="2_31" sheetId="160" r:id="rId160"/>
+    <sheet name="2_32" sheetId="161" r:id="rId161"/>
+    <sheet name="2_33" sheetId="162" r:id="rId162"/>
+    <sheet name="2_34" sheetId="163" r:id="rId163"/>
+    <sheet name="2_35" sheetId="164" r:id="rId164"/>
+    <sheet name="2_36" sheetId="165" r:id="rId165"/>
+    <sheet name="2_37" sheetId="166" r:id="rId166"/>
+    <sheet name="2_38" sheetId="167" r:id="rId167"/>
+    <sheet name="2_39" sheetId="168" r:id="rId168"/>
+    <sheet name="2_40" sheetId="169" r:id="rId169"/>
+    <sheet name="2_41" sheetId="170" r:id="rId170"/>
+    <sheet name="2_42" sheetId="171" r:id="rId171"/>
+    <sheet name="2_43" sheetId="172" r:id="rId172"/>
+    <sheet name="2_44" sheetId="173" r:id="rId173"/>
+    <sheet name="2_45" sheetId="174" r:id="rId174"/>
+    <sheet name="2_46" sheetId="175" r:id="rId175"/>
+    <sheet name="2_47" sheetId="176" r:id="rId176"/>
+    <sheet name="2_48" sheetId="177" r:id="rId177"/>
+    <sheet name="2_49" sheetId="178" r:id="rId178"/>
+    <sheet name="2_50" sheetId="179" r:id="rId179"/>
+    <sheet name="2_51" sheetId="180" r:id="rId180"/>
+    <sheet name="2_52" sheetId="181" r:id="rId181"/>
+    <sheet name="2_53" sheetId="182" r:id="rId182"/>
+    <sheet name="2_54" sheetId="183" r:id="rId183"/>
+    <sheet name="2_55" sheetId="184" r:id="rId184"/>
+    <sheet name="2_56" sheetId="185" r:id="rId185"/>
+    <sheet name="2_57" sheetId="186" r:id="rId186"/>
+    <sheet name="2_58" sheetId="187" r:id="rId187"/>
+    <sheet name="2_59" sheetId="188" r:id="rId188"/>
+    <sheet name="2_60" sheetId="189" r:id="rId189"/>
+    <sheet name="2_61" sheetId="190" r:id="rId190"/>
+    <sheet name="2_62" sheetId="191" r:id="rId191"/>
+    <sheet name="2_63" sheetId="192" r:id="rId192"/>
+    <sheet name="3_0" sheetId="193" r:id="rId193"/>
+    <sheet name="3_1" sheetId="194" r:id="rId194"/>
+    <sheet name="3_2" sheetId="195" r:id="rId195"/>
+    <sheet name="3_3" sheetId="196" r:id="rId196"/>
+    <sheet name="3_4" sheetId="197" r:id="rId197"/>
+    <sheet name="3_5" sheetId="198" r:id="rId198"/>
+    <sheet name="3_6" sheetId="199" r:id="rId199"/>
+    <sheet name="3_7" sheetId="200" r:id="rId200"/>
+    <sheet name="3_8" sheetId="201" r:id="rId201"/>
+    <sheet name="3_9" sheetId="202" r:id="rId202"/>
+    <sheet name="3_10" sheetId="203" r:id="rId203"/>
+    <sheet name="3_11" sheetId="204" r:id="rId204"/>
+    <sheet name="3_12" sheetId="205" r:id="rId205"/>
+    <sheet name="3_13" sheetId="206" r:id="rId206"/>
+    <sheet name="3_14" sheetId="207" r:id="rId207"/>
+    <sheet name="3_15" sheetId="208" r:id="rId208"/>
+    <sheet name="3_16" sheetId="209" r:id="rId209"/>
+    <sheet name="3_17" sheetId="210" r:id="rId210"/>
+    <sheet name="3_18" sheetId="211" r:id="rId211"/>
+    <sheet name="3_19" sheetId="212" r:id="rId212"/>
+    <sheet name="3_20" sheetId="213" r:id="rId213"/>
+    <sheet name="3_21" sheetId="214" r:id="rId214"/>
+    <sheet name="3_22" sheetId="215" r:id="rId215"/>
+    <sheet name="3_23" sheetId="216" r:id="rId216"/>
+    <sheet name="3_24" sheetId="217" r:id="rId217"/>
+    <sheet name="3_25" sheetId="218" r:id="rId218"/>
+    <sheet name="3_26" sheetId="219" r:id="rId219"/>
+    <sheet name="3_27" sheetId="220" r:id="rId220"/>
+    <sheet name="3_28" sheetId="221" r:id="rId221"/>
+    <sheet name="3_29" sheetId="222" r:id="rId222"/>
+    <sheet name="3_30" sheetId="223" r:id="rId223"/>
+    <sheet name="3_31" sheetId="224" r:id="rId224"/>
+    <sheet name="3_32" sheetId="225" r:id="rId225"/>
+    <sheet name="3_33" sheetId="226" r:id="rId226"/>
+    <sheet name="3_34" sheetId="227" r:id="rId227"/>
+    <sheet name="3_35" sheetId="228" r:id="rId228"/>
+    <sheet name="3_36" sheetId="229" r:id="rId229"/>
+    <sheet name="3_37" sheetId="230" r:id="rId230"/>
+    <sheet name="3_38" sheetId="231" r:id="rId231"/>
+    <sheet name="3_39" sheetId="232" r:id="rId232"/>
+    <sheet name="3_40" sheetId="233" r:id="rId233"/>
+    <sheet name="3_41" sheetId="234" r:id="rId234"/>
+    <sheet name="3_42" sheetId="235" r:id="rId235"/>
+    <sheet name="3_43" sheetId="236" r:id="rId236"/>
+    <sheet name="3_44" sheetId="237" r:id="rId237"/>
+    <sheet name="3_45" sheetId="238" r:id="rId238"/>
+    <sheet name="3_46" sheetId="239" r:id="rId239"/>
+    <sheet name="3_47" sheetId="240" r:id="rId240"/>
+    <sheet name="3_48" sheetId="241" r:id="rId241"/>
+    <sheet name="3_49" sheetId="242" r:id="rId242"/>
+    <sheet name="3_50" sheetId="243" r:id="rId243"/>
+    <sheet name="3_51" sheetId="244" r:id="rId244"/>
+    <sheet name="3_52" sheetId="245" r:id="rId245"/>
+    <sheet name="3_53" sheetId="246" r:id="rId246"/>
+    <sheet name="3_54" sheetId="247" r:id="rId247"/>
+    <sheet name="3_55" sheetId="248" r:id="rId248"/>
+    <sheet name="3_56" sheetId="249" r:id="rId249"/>
+    <sheet name="3_57" sheetId="250" r:id="rId250"/>
+    <sheet name="3_58" sheetId="251" r:id="rId251"/>
+    <sheet name="3_59" sheetId="252" r:id="rId252"/>
+    <sheet name="3_60" sheetId="253" r:id="rId253"/>
+    <sheet name="3_61" sheetId="254" r:id="rId254"/>
+    <sheet name="3_62" sheetId="255" r:id="rId255"/>
+    <sheet name="3_63" sheetId="256" r:id="rId256"/>
+    <sheet name="4_0" sheetId="257" r:id="rId257"/>
+    <sheet name="4_1" sheetId="258" r:id="rId258"/>
+    <sheet name="4_2" sheetId="259" r:id="rId259"/>
+    <sheet name="4_3" sheetId="260" r:id="rId260"/>
+    <sheet name="4_4" sheetId="261" r:id="rId261"/>
+    <sheet name="4_5" sheetId="262" r:id="rId262"/>
+    <sheet name="4_6" sheetId="263" r:id="rId263"/>
+    <sheet name="4_7" sheetId="264" r:id="rId264"/>
+    <sheet name="4_8" sheetId="265" r:id="rId265"/>
+    <sheet name="4_9" sheetId="266" r:id="rId266"/>
+    <sheet name="4_10" sheetId="267" r:id="rId267"/>
+    <sheet name="4_11" sheetId="268" r:id="rId268"/>
+    <sheet name="4_12" sheetId="269" r:id="rId269"/>
+    <sheet name="4_13" sheetId="270" r:id="rId270"/>
+    <sheet name="4_14" sheetId="271" r:id="rId271"/>
+    <sheet name="4_15" sheetId="272" r:id="rId272"/>
+    <sheet name="4_16" sheetId="273" r:id="rId273"/>
+    <sheet name="4_17" sheetId="274" r:id="rId274"/>
+    <sheet name="4_18" sheetId="275" r:id="rId275"/>
+    <sheet name="4_19" sheetId="276" r:id="rId276"/>
+    <sheet name="4_20" sheetId="277" r:id="rId277"/>
+    <sheet name="4_21" sheetId="278" r:id="rId278"/>
+    <sheet name="4_22" sheetId="279" r:id="rId279"/>
+    <sheet name="4_23" sheetId="280" r:id="rId280"/>
+    <sheet name="4_24" sheetId="281" r:id="rId281"/>
+    <sheet name="4_25" sheetId="282" r:id="rId282"/>
+    <sheet name="4_26" sheetId="283" r:id="rId283"/>
+    <sheet name="4_27" sheetId="284" r:id="rId284"/>
+    <sheet name="4_28" sheetId="285" r:id="rId285"/>
+    <sheet name="4_29" sheetId="286" r:id="rId286"/>
+    <sheet name="4_30" sheetId="287" r:id="rId287"/>
+    <sheet name="4_31" sheetId="288" r:id="rId288"/>
+    <sheet name="4_32" sheetId="289" r:id="rId289"/>
+    <sheet name="4_33" sheetId="290" r:id="rId290"/>
+    <sheet name="4_34" sheetId="291" r:id="rId291"/>
+    <sheet name="4_35" sheetId="292" r:id="rId292"/>
+    <sheet name="4_36" sheetId="293" r:id="rId293"/>
+    <sheet name="4_37" sheetId="294" r:id="rId294"/>
+    <sheet name="4_38" sheetId="295" r:id="rId295"/>
+    <sheet name="4_39" sheetId="296" r:id="rId296"/>
+    <sheet name="4_40" sheetId="297" r:id="rId297"/>
+    <sheet name="4_41" sheetId="298" r:id="rId298"/>
+    <sheet name="4_42" sheetId="299" r:id="rId299"/>
+    <sheet name="4_43" sheetId="300" r:id="rId300"/>
+    <sheet name="4_44" sheetId="301" r:id="rId301"/>
+    <sheet name="4_45" sheetId="302" r:id="rId302"/>
+    <sheet name="4_46" sheetId="303" r:id="rId303"/>
+    <sheet name="4_47" sheetId="304" r:id="rId304"/>
+    <sheet name="4_48" sheetId="305" r:id="rId305"/>
+    <sheet name="4_49" sheetId="306" r:id="rId306"/>
+    <sheet name="4_50" sheetId="307" r:id="rId307"/>
+    <sheet name="4_51" sheetId="308" r:id="rId308"/>
+    <sheet name="4_52" sheetId="309" r:id="rId309"/>
+    <sheet name="4_53" sheetId="310" r:id="rId310"/>
+    <sheet name="4_54" sheetId="311" r:id="rId311"/>
+    <sheet name="4_55" sheetId="312" r:id="rId312"/>
+    <sheet name="4_56" sheetId="313" r:id="rId313"/>
+    <sheet name="4_57" sheetId="314" r:id="rId314"/>
+    <sheet name="4_58" sheetId="315" r:id="rId315"/>
+    <sheet name="4_59" sheetId="316" r:id="rId316"/>
+    <sheet name="4_60" sheetId="317" r:id="rId317"/>
+    <sheet name="4_61" sheetId="318" r:id="rId318"/>
+    <sheet name="4_62" sheetId="319" r:id="rId319"/>
+    <sheet name="4_63" sheetId="320" r:id="rId320"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="4">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>disconnected_elements</t>
+  </si>
+  <si>
+    <t>overload</t>
+  </si>
+  <si>
+    <t>wrong_switch_configuration</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +376,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +384,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,11 +702,5900 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet130.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet136.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet137.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet138.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet139.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet140.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet141.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet142.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet143.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet144.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet145.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet146.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet147.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet148.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet149.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet150.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet151.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet152.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet153.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet154.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet155.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet156.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet157.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet158.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet159.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet160.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet161.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet162.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet163.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet164.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet165.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet166.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet167.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet168.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet169.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet170.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet171.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet172.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet173.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet174.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet175.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet176.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet177.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet178.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet179.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet180.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet181.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet182.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet183.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet184.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet185.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet186.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet187.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet188.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet189.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet190.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet191.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet192.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet193.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet194.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet195.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet196.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet197.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet198.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet199.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet200.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet201.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet202.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet203.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet204.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet205.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet206.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet207.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet208.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet209.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet210.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet211.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet212.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet213.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet214.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet215.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet216.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet217.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet218.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet219.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet220.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet221.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet222.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet223.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet224.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet225.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet226.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet227.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet228.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet229.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet230.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet231.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet232.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet233.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet234.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet235.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet236.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet237.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet238.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet239.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet240.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet241.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet242.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet243.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet244.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet245.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet246.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet247.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet248.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet249.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet250.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet251.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet252.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet253.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet254.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet255.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet256.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet257.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet258.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet259.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet260.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet261.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet262.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet263.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet264.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet265.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet266.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet267.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet268.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet269.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet270.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet271.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet272.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet273.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet274.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet275.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet276.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet277.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet278.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet279.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet280.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet281.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet282.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet283.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet284.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet285.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet286.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet287.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet288.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet289.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet290.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet291.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet292.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet293.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet294.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet295.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet296.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet297.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet298.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet299.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet300.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet301.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet302.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet303.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet304.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet305.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet306.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet307.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet308.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet309.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet310.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet311.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet312.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet313.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet314.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet315.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet316.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet317.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet318.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet319.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet320.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
